--- a/data/trans_dic/P23_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P23_1_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe menos o muchas menos visitas/llamadas de las que desea de sus amigos y familiares</t>
+          <t>Población que recibe menos o muchas menos visitas/llamadas de las que desea de sus amigos y familiares (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>11,55%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>9,58%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5,15%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6,14%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>3,31%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,69; 16,5</t>
+          <t>0,0; 21,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,95</t>
+          <t>0,0; 18,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,27</t>
+          <t>0,0; 21,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,12; 18,9</t>
+          <t>0,0; 24,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,74; 17,41</t>
+          <t>3,52; 23,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,29; 11,97</t>
+          <t>1,86; 17,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,35; 14,54</t>
+          <t>2,31; 18,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,0; 12,4</t>
+          <t>0,0; 10,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,2; 7,97</t>
+          <t>4,17; 18,56</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1,27; 11,63</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1,32; 15,91</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 13,55</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>23,5%</t>
+          <t>35,95%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,95%</t>
+          <t>15,9%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,28%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>17,03%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,73%</t>
+          <t>17,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>11,73%</t>
+          <t>12,78%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>19,03%</t>
+          <t>11,91%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>12,29%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>27,06%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>14,49%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>8,27%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,93; 20,38</t>
+          <t>1,96; 18,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,47; 45,79</t>
+          <t>12,25; 66,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,64; 35,19</t>
+          <t>1,74; 48,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,19; 23,65</t>
+          <t>0,0; 16,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,23; 22,45</t>
+          <t>8,69; 28,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,39; 26,86</t>
+          <t>8,99; 29,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,24; 18,55</t>
+          <t>6,07; 23,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,05; 33,1</t>
+          <t>3,76; 29,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,49; 27,26</t>
+          <t>6,96; 20,25</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>14,26; 46,26</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>6,07; 35,43</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>3,4; 17,17</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>17,82%</t>
+          <t>18,43%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>13,61%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,64%</t>
+          <t>24,99%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,08%</t>
+          <t>14,26%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>19,16%</t>
+          <t>13,17%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>15,08%</t>
+          <t>21,75%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>14,81%</t>
+          <t>16,45%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>14,17%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>15,17%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>18,6%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>19,93%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>10,54%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,93; 41,22</t>
+          <t>9,68; 30,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,25; 15,32</t>
+          <t>6,51; 24,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,67; 21,78</t>
+          <t>14,57; 37,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,18; 17,79</t>
+          <t>7,2; 24,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,99; 25,74</t>
+          <t>7,95; 22,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,24; 21,6</t>
+          <t>14,0; 29,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,76; 25,48</t>
+          <t>10,18; 24,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,26; 19,24</t>
+          <t>3,67; 14,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,87; 19,02</t>
+          <t>9,98; 20,53</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>12,68; 24,73</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>13,29; 26,78</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>6,01; 16,17</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>11,57%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,84%</t>
+          <t>17,23%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,63%</t>
+          <t>13,99%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,98%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,03%</t>
+          <t>15,65%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,29%</t>
+          <t>22,39%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>13,17%</t>
+          <t>19,17%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17,58%</t>
+          <t>13,91%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>17,99%</t>
+          <t>13,77%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>20,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>16,71%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>10,55%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,52; 17,38</t>
+          <t>5,41; 19,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,04; 22,36</t>
+          <t>9,95; 26,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,77; 24,97</t>
+          <t>7,15; 21,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,84; 23,53</t>
+          <t>2,57; 15,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,47; 25,74</t>
+          <t>9,75; 23,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,51; 24,49</t>
+          <t>14,73; 32,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,14; 17,89</t>
+          <t>12,51; 27,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,6; 22,34</t>
+          <t>8,11; 22,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,59; 22,83</t>
+          <t>9,63; 19,67</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>14,36; 26,04</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>11,84; 22,35</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>6,81; 16,62</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>17,42%</t>
+          <t>19,02%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>15,44%</t>
+          <t>18,4%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>17,64%</t>
+          <t>22,29%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>12,11%</t>
+          <t>15,42%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>17,64%</t>
+          <t>8,39%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>11,26%</t>
+          <t>16,61%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>16,5%</t>
+          <t>12,05%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>14,54%</t>
+          <t>14,47%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>17,65%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>15,45%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>13,83%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,85; 26,23</t>
+          <t>10,49; 29,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,04; 23,2</t>
+          <t>10,51; 28,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,16; 30,39</t>
+          <t>12,69; 39,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,2; 19,69</t>
+          <t>6,97; 33,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,86; 25,38</t>
+          <t>2,48; 20,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,11; 18,64</t>
+          <t>7,01; 28,76</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,63; 20,22</t>
+          <t>1,62; 19,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,12; 21,38</t>
+          <t>4,76; 25,83</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10,07; 21,35</t>
+          <t>8,72; 21,74</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>11,17; 25,45</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>8,92; 25,29</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>7,79; 24,71</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>16,56%</t>
+          <t>14,25%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>15,44%</t>
+          <t>17,57%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>17,4%</t>
+          <t>16,04%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>14,73%</t>
+          <t>13,04%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>13,47%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>17,05%</t>
+          <t>20,08%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>15,01%</t>
+          <t>11,09%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>13,58%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>15,31%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>15,23%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,53; 14,7</t>
+          <t>0,0; 17,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,0; 26,36</t>
+          <t>5,18; 30,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,49; 24,48</t>
+          <t>7,94; 32,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,2; 26,35</t>
+          <t>2,45; 21,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9,56; 26,92</t>
+          <t>7,68; 32,26</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,01; 27,33</t>
+          <t>5,45; 25,88</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,19; 19,3</t>
+          <t>5,69; 27,75</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11,79; 24,05</t>
+          <t>9,84; 34,77</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9,13; 22,73</t>
+          <t>5,66; 20,6</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>7,48; 22,49</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>8,55; 24,5</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>8,06; 25,72</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>12,51%</t>
+          <t>12,01%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>13,79%</t>
+          <t>18,11%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>12,9%</t>
+          <t>16,53%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,87%</t>
+          <t>9,03%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>16,45%</t>
+          <t>13,95%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>17,34%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>12,7%</t>
+          <t>13,57%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>15,18%</t>
+          <t>11,65%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>13,05%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>17,7%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>15,02%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>10,38%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>9,72; 18,25</t>
+          <t>8,6; 16,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,64; 19,26</t>
+          <t>12,98; 27,81</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,93; 17,45</t>
+          <t>11,9; 24,54</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,47; 16,22</t>
+          <t>5,81; 13,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>13,69; 19,34</t>
+          <t>10,87; 18,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>11,27; 17,01</t>
+          <t>13,74; 21,22</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,68; 15,37</t>
+          <t>10,34; 17,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>13,09; 18,1</t>
+          <t>8,61; 16,05</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>11,59; 15,94</t>
+          <t>10,61; 15,57</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>14,57; 22,28</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>12,32; 19,04</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>8,09; 13,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe menos o muchas menos visitas/llamadas de las que desea de sus amigos y familiares (tasa de respuesta: 99,74%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>7596</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3809</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>6386</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>6573</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>15483</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>7814</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>8981</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2849</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>23079</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>11623</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>15367</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>9423</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 23105</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 19669</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 26796</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 34296</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>4718; 31722</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2239; 20597</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2826; 22885</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15272</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>10060; 44744</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2879; 26256</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>3311; 39776</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 38582</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>12908</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>51556</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>24531</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>12915</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>28124</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>21541</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>16139</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>19335</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>41032</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>73097</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>40670</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>32250</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>3303; 30442</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>17573; 95310</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2686; 74343</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 38696</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>14341; 46375</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>11392; 37364</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>7663; 29414</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>6109; 47186</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>23227; 67594</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>38509; 124934</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>17030; 99406</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>13258; 66982</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>29862</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>17963</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>34398</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>25700</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>34785</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>45528</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>32969</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>18576</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>64647</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>63491</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>67367</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>44276</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>15681; 48867</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>8599; 32011</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>20050; 52002</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>12975; 44872</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>20993; 58986</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>29314; 61875</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>20399; 49509</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8806; 35041</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>42510; 87482</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>43289; 84405</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>44936; 90561</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>25252; 67890</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>21608</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>27784</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>21849</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>13954</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>34172</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>41635</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>33062</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>29033</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>55780</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>69420</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>54910</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>42987</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>10095; 36900</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>16038; 43429</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>11164; 34064</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>5106; 29980</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>21283; 52062</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>27396; 59595</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>21568; 47642</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>16925; 46746</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>38999; 79663</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>49847; 90388</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>38907; 73464</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>27745; 67738</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>29536</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>24006</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>27462</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>23845</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>9749</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>15586</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>5887</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>16511</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>39284</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>39591</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>33349</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>40355</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>16298; 45837</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>13716; 37192</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>15635; 48391</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>10775; 51447</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2886; 23349</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>6575; 26978</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1506; 17639</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>6526; 35406</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>23673; 59022</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>25048; 57072</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>19246; 54596</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>22717; 72066</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>5320</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>12088</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>15834</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>10782</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>22069</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>13709</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>14893</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>42331</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>27389</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>25797</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>30727</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>53113</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 18808</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>4392; 26053</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>7155; 29651</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>3370; 29159</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>10563; 44397</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>5732; 27208</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>6297; 30689</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>20748; 73307</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>13977; 50870</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>14217; 42714</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>17160; 49176</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>28103; 89659</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>106829</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>137206</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>130460</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>93770</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>144382</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>145813</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>111931</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>128634</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>251211</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>283019</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>242392</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>222404</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>76464; 142727</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>98337; 210685</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>93874; 193604</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>60329; 135249</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>112521; 189650</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>115566; 178470</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>85310; 141746</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>95054; 177181</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>204263; 299613</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>232866; 356235</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>198771; 307243</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>173407; 280328</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>